--- a/Inf/Lab5/lab5.xlsx
+++ b/Inf/Lab5/lab5.xlsx
@@ -780,8 +780,8 @@
   </sheetPr>
   <dimension ref="A1:AH71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA5" activeCellId="0" sqref="AA5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="n">
-        <v>3307</v>
+        <v>8361</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -844,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>20458</v>
+        <v>16090</v>
       </c>
       <c r="Y2" s="10"/>
     </row>
@@ -912,7 +912,7 @@
       </c>
       <c r="C4" s="1" t="n">
         <f aca="false">C1</f>
-        <v>3307</v>
+        <v>8361</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
@@ -927,7 +927,7 @@
       </c>
       <c r="I4" s="3" t="n">
         <f aca="false">MOD(INT($C4/2^I$3),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="3" t="n">
         <f aca="false">MOD(INT($C4/2^J$3),2)</f>
@@ -938,11 +938,11 @@
       </c>
       <c r="L4" s="3" t="n">
         <f aca="false">MOD(INT($C4/2^L$3),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3" t="n">
         <f aca="false">MOD(INT($C4/2^M$3),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="3" t="n">
         <f aca="false">MOD(INT($C4/2^N$3),2)</f>
@@ -961,7 +961,7 @@
       </c>
       <c r="R4" s="3" t="n">
         <f aca="false">MOD(INT($C4/2^R$3),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" s="3" t="n">
         <f aca="false">MOD(INT($C4/2^S$3),2)</f>
@@ -984,7 +984,7 @@
       </c>
       <c r="X4" s="3" t="n">
         <f aca="false">MOD(INT($C4/2^X$3),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="10" t="n">
         <f aca="false">MOD(INT($C4/2^Y$3),2)</f>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="C5" s="1" t="n">
         <f aca="false">C2</f>
-        <v>20458</v>
+        <v>16090</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>6</v>
@@ -1011,15 +1011,15 @@
       </c>
       <c r="H5" s="3" t="n">
         <f aca="false">MOD(INT($C5/2^H$3),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="3" t="n">
         <f aca="false">MOD(INT($C5/2^I$3),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="3" t="n">
         <f aca="false">MOD(INT($C5/2^J$3),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>4</v>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="O5" s="3" t="n">
         <f aca="false">MOD(INT($C5/2^O$3),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>4</v>
@@ -1053,11 +1053,11 @@
       </c>
       <c r="S5" s="3" t="n">
         <f aca="false">MOD(INT($C5/2^S$3),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" s="3" t="n">
         <f aca="false">MOD(INT($C5/2^T$3),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" s="3" t="s">
         <v>4</v>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="C6" s="1" t="n">
         <f aca="false">C1+C2</f>
-        <v>23765</v>
+        <v>24451</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
@@ -1122,11 +1122,11 @@
       </c>
       <c r="N6" s="3" t="n">
         <f aca="false">MOD(INT($C6/2^N$3),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="3" t="n">
         <f aca="false">MOD(INT($C6/2^O$3),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>4</v>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="R6" s="3" t="n">
         <f aca="false">MOD(INT($C6/2^R$3),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" s="3" t="n">
         <f aca="false">MOD(INT($C6/2^S$3),2)</f>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="T6" s="3" t="n">
         <f aca="false">MOD(INT($C6/2^T$3),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" s="3" t="s">
         <v>4</v>
@@ -1156,11 +1156,11 @@
       </c>
       <c r="W6" s="3" t="n">
         <f aca="false">MOD(INT($C6/2^W$3),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" s="3" t="n">
         <f aca="false">MOD(INT($C6/2^X$3),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="10" t="n">
         <f aca="false">MOD(INT($C6/2^Y$3),2)</f>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="C7" s="1" t="n">
         <f aca="false">C1+C2+C2</f>
-        <v>44223</v>
+        <v>40541</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>12</v>
@@ -1191,11 +1191,11 @@
       </c>
       <c r="I7" s="3" t="n">
         <f aca="false">MOD(INT($C7/2^I$3),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="3" t="n">
         <f aca="false">MOD(INT($C7/2^J$3),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>4</v>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="N7" s="3" t="n">
         <f aca="false">MOD(INT($C7/2^N$3),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="3" t="n">
         <f aca="false">MOD(INT($C7/2^O$3),2)</f>
@@ -1221,15 +1221,15 @@
       </c>
       <c r="Q7" s="3" t="n">
         <f aca="false">MOD(INT($C7/2^Q$3),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="3" t="n">
         <f aca="false">MOD(INT($C7/2^R$3),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="3" t="n">
         <f aca="false">MOD(INT($C7/2^S$3),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" s="3" t="n">
         <f aca="false">MOD(INT($C7/2^T$3),2)</f>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="X7" s="3" t="n">
         <f aca="false">MOD(INT($C7/2^X$3),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="10" t="n">
         <f aca="false">MOD(INT($C7/2^Y$3),2)</f>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="C8" s="1" t="n">
         <f aca="false">C2-C1</f>
-        <v>17151</v>
+        <v>7729</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="H8" s="3" t="n">
         <f aca="false">MOD(INT($C8/2^H$3),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3" t="n">
         <f aca="false">MOD(INT($C8/2^I$3),2)</f>
@@ -1283,18 +1283,18 @@
       </c>
       <c r="J8" s="3" t="n">
         <f aca="false">MOD(INT($C8/2^J$3),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L8" s="3" t="n">
         <f aca="false">MOD(INT($C8/2^L$3),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="3" t="n">
         <f aca="false">MOD(INT($C8/2^M$3),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="3" t="n">
         <f aca="false">MOD(INT($C8/2^N$3),2)</f>
@@ -1309,11 +1309,11 @@
       </c>
       <c r="Q8" s="3" t="n">
         <f aca="false">MOD(INT($C8/2^Q$3),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="3" t="n">
         <f aca="false">MOD(INT($C8/2^R$3),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="3" t="n">
         <f aca="false">MOD(INT($C8/2^S$3),2)</f>
@@ -1328,15 +1328,15 @@
       </c>
       <c r="V8" s="3" t="n">
         <f aca="false">MOD(INT($C8/2^V$3),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="3" t="n">
         <f aca="false">MOD(INT($C8/2^W$3),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" s="3" t="n">
         <f aca="false">MOD(INT($C8/2^X$3),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="10" t="n">
         <f aca="false">MOD(INT($C8/2^Y$3),2)</f>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="C9" s="1" t="n">
         <f aca="false">65536-C7</f>
-        <v>21313</v>
+        <v>24995</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>18</v>
@@ -1367,11 +1367,11 @@
       </c>
       <c r="I9" s="3" t="n">
         <f aca="false">MOD(INT($C9/2^I$3),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="3" t="n">
         <f aca="false">MOD(INT($C9/2^J$3),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="N9" s="3" t="n">
         <f aca="false">MOD(INT($C9/2^N$3),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="n">
         <f aca="false">MOD(INT($C9/2^O$3),2)</f>
@@ -1397,15 +1397,15 @@
       </c>
       <c r="Q9" s="3" t="n">
         <f aca="false">MOD(INT($C9/2^Q$3),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="3" t="n">
         <f aca="false">MOD(INT($C9/2^R$3),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" s="3" t="n">
         <f aca="false">MOD(INT($C9/2^S$3),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" s="3" t="n">
         <f aca="false">MOD(INT($C9/2^T$3),2)</f>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="X9" s="3" t="n">
         <f aca="false">MOD(INT($C9/2^X$3),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="10" t="n">
         <f aca="false">MOD(INT($C9/2^Y$3),2)</f>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="C10" s="1" t="n">
         <f aca="false">-C4</f>
-        <v>-3307</v>
+        <v>-8361</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>21</v>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="I10" s="3" t="n">
         <f aca="false">MOD(INT($C10/2^I$3),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3" t="n">
         <f aca="false">MOD(INT($C10/2^J$3),2)</f>
@@ -1469,11 +1469,11 @@
       </c>
       <c r="L10" s="3" t="n">
         <f aca="false">MOD(INT($C10/2^L$3),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="3" t="n">
         <f aca="false">MOD(INT($C10/2^M$3),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="3" t="n">
         <f aca="false">MOD(INT($C10/2^N$3),2)</f>
@@ -1492,7 +1492,7 @@
       </c>
       <c r="R10" s="3" t="n">
         <f aca="false">MOD(INT($C10/2^R$3),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" s="3" t="n">
         <f aca="false">MOD(INT($C10/2^S$3),2)</f>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="X10" s="3" t="n">
         <f aca="false">MOD(INT($C10/2^X$3),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="10" t="n">
         <f aca="false">MOD(INT($C10/2^Y$3),2)</f>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="C11" s="1" t="n">
         <f aca="false">-C5</f>
-        <v>-20458</v>
+        <v>-16090</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>25</v>
@@ -1545,15 +1545,15 @@
       </c>
       <c r="H11" s="3" t="n">
         <f aca="false">MOD(INT($C11/2^H$3),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="3" t="n">
         <f aca="false">MOD(INT($C11/2^I$3),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="3" t="n">
         <f aca="false">MOD(INT($C11/2^J$3),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>4</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="O11" s="3" t="n">
         <f aca="false">MOD(INT($C11/2^O$3),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>4</v>
@@ -1587,11 +1587,11 @@
       </c>
       <c r="S11" s="3" t="n">
         <f aca="false">MOD(INT($C11/2^S$3),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" s="3" t="n">
         <f aca="false">MOD(INT($C11/2^T$3),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" s="3" t="s">
         <v>4</v>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="C12" s="1" t="n">
         <f aca="false">-C6</f>
-        <v>-23765</v>
+        <v>-24451</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>29</v>
@@ -1659,11 +1659,11 @@
       </c>
       <c r="N12" s="3" t="n">
         <f aca="false">MOD(INT($C12/2^N$3),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3" t="n">
         <f aca="false">MOD(INT($C12/2^O$3),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>4</v>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="R12" s="3" t="n">
         <f aca="false">MOD(INT($C12/2^R$3),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="3" t="n">
         <f aca="false">MOD(INT($C12/2^S$3),2)</f>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="T12" s="3" t="n">
         <f aca="false">MOD(INT($C12/2^T$3),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>4</v>
@@ -1693,11 +1693,11 @@
       </c>
       <c r="W12" s="3" t="n">
         <f aca="false">MOD(INT($C12/2^W$3),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" s="3" t="n">
         <f aca="false">MOD(INT($C12/2^X$3),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="10" t="n">
         <f aca="false">MOD(INT($C12/2^Y$3),2)</f>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="C13" s="1" t="n">
         <f aca="false">-C7</f>
-        <v>-44223</v>
+        <v>-40541</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>33</v>
@@ -1731,11 +1731,11 @@
       </c>
       <c r="I13" s="3" t="n">
         <f aca="false">MOD(INT($C13/2^I$3),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="3" t="n">
         <f aca="false">MOD(INT($C13/2^J$3),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>4</v>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="N13" s="3" t="n">
         <f aca="false">MOD(INT($C13/2^N$3),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="3" t="n">
         <f aca="false">MOD(INT($C13/2^O$3),2)</f>
@@ -1761,15 +1761,15 @@
       </c>
       <c r="Q13" s="3" t="n">
         <f aca="false">MOD(INT($C13/2^Q$3),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="3" t="n">
         <f aca="false">MOD(INT($C13/2^R$3),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" s="3" t="n">
         <f aca="false">MOD(INT($C13/2^S$3),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" s="3" t="n">
         <f aca="false">MOD(INT($C13/2^T$3),2)</f>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="X13" s="3" t="n">
         <f aca="false">MOD(INT($C13/2^X$3),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13" s="10" t="n">
         <f aca="false">MOD(INT($C13/2^Y$3),2)</f>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="C14" s="1" t="n">
         <f aca="false">-C8</f>
-        <v>-17151</v>
+        <v>-7729</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>37</v>
@@ -1818,7 +1818,7 @@
       </c>
       <c r="H14" s="3" t="n">
         <f aca="false">MOD(INT($C14/2^H$3),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="3" t="n">
         <f aca="false">MOD(INT($C14/2^I$3),2)</f>
@@ -1826,18 +1826,18 @@
       </c>
       <c r="J14" s="3" t="n">
         <f aca="false">MOD(INT($C14/2^J$3),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L14" s="3" t="n">
         <f aca="false">MOD(INT($C14/2^L$3),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="n">
         <f aca="false">MOD(INT($C14/2^M$3),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="n">
         <f aca="false">MOD(INT($C14/2^N$3),2)</f>
@@ -1852,11 +1852,11 @@
       </c>
       <c r="Q14" s="3" t="n">
         <f aca="false">MOD(INT($C14/2^Q$3),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="3" t="n">
         <f aca="false">MOD(INT($C14/2^R$3),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" s="3" t="n">
         <f aca="false">MOD(INT($C14/2^S$3),2)</f>
@@ -1871,15 +1871,15 @@
       </c>
       <c r="V14" s="3" t="n">
         <f aca="false">MOD(INT($C14/2^V$3),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14" s="3" t="n">
         <f aca="false">MOD(INT($C14/2^W$3),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" s="3" t="n">
         <f aca="false">MOD(INT($C14/2^X$3),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14" s="10" t="n">
         <f aca="false">MOD(INT($C14/2^Y$3),2)</f>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="C15" s="15" t="n">
         <f aca="false">-C9</f>
-        <v>-21313</v>
+        <v>-24995</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15" t="s">
@@ -1914,11 +1914,11 @@
       </c>
       <c r="I15" s="16" t="n">
         <f aca="false">MOD(INT($C15/2^I$3),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="16" t="n">
         <f aca="false">MOD(INT($C15/2^J$3),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="16" t="s">
         <v>4</v>
@@ -1933,7 +1933,7 @@
       </c>
       <c r="N15" s="16" t="n">
         <f aca="false">MOD(INT($C15/2^N$3),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="16" t="n">
         <f aca="false">MOD(INT($C15/2^O$3),2)</f>
@@ -1944,15 +1944,15 @@
       </c>
       <c r="Q15" s="16" t="n">
         <f aca="false">MOD(INT($C15/2^Q$3),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="16" t="n">
         <f aca="false">MOD(INT($C15/2^R$3),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="16" t="n">
         <f aca="false">MOD(INT($C15/2^S$3),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="16" t="n">
         <f aca="false">MOD(INT($C15/2^T$3),2)</f>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="X15" s="16" t="n">
         <f aca="false">MOD(INT($C15/2^X$3),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="10" t="n">
         <f aca="false">MOD(INT($C15/2^Y$3),2)</f>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="H17" s="22" t="n">
         <f aca="false">IF(SUM(I17:I19)&gt;=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="22" t="n">
         <f aca="false">IF(SUM(J17:J19)&gt;=2,1,0)</f>
@@ -2027,20 +2027,20 @@
       </c>
       <c r="J17" s="23" t="n">
         <f aca="false">IF(SUM(L17:L19)&gt;=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="22"/>
       <c r="L17" s="22" t="n">
         <f aca="false">IF(SUM(M17:M19)&gt;=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="22" t="n">
         <f aca="false">IF(SUM(N17:N19)&gt;=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="22" t="n">
         <f aca="false">IF(SUM(O17:O19)&gt;=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="23" t="n">
         <f aca="false">IF(SUM(Q17:Q19)&gt;=2,1,0)</f>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="S17" s="22" t="n">
         <f aca="false">IF(SUM(T17:T19)&gt;=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" s="23" t="n">
         <f aca="false">IF(SUM(V17:V19)&gt;=2,1,0)</f>
@@ -2070,7 +2070,7 @@
       </c>
       <c r="W17" s="22" t="n">
         <f aca="false">IF(SUM(X17:X19)&gt;=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" s="22" t="n">
         <f aca="false">IF(SUM(Y17:Y19)&gt;=2,1,0)</f>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="I18" s="3" t="n">
         <f aca="false">I4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="3" t="n">
         <f aca="false">J4</f>
@@ -2116,11 +2116,11 @@
       </c>
       <c r="L18" s="3" t="n">
         <f aca="false">L4</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3" t="n">
         <f aca="false">M4</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3" t="n">
         <f aca="false">N4</f>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="R18" s="3" t="n">
         <f aca="false">R4</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3" t="n">
         <f aca="false">S4</f>
@@ -2164,7 +2164,7 @@
       </c>
       <c r="X18" s="3" t="n">
         <f aca="false">X4</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="3" t="n">
         <f aca="false">Y4</f>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="AE18" s="3" t="n">
         <f aca="false">C4</f>
-        <v>3307</v>
+        <v>8361</v>
       </c>
       <c r="AF18" s="25" t="s">
         <v>47</v>
@@ -2196,15 +2196,15 @@
       </c>
       <c r="H19" s="3" t="n">
         <f aca="false">H5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="3" t="n">
         <f aca="false">I5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="3" t="n">
         <f aca="false">J5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="3" t="str">
         <f aca="false">K5</f>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="O19" s="3" t="n">
         <f aca="false">O5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" s="3" t="str">
         <f aca="false">P5</f>
@@ -2240,11 +2240,11 @@
       </c>
       <c r="S19" s="3" t="n">
         <f aca="false">S5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" s="3" t="n">
         <f aca="false">T5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" s="3" t="str">
         <f aca="false">U5</f>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AE19" s="3" t="n">
         <f aca="false">C5</f>
-        <v>20458</v>
+        <v>16090</v>
       </c>
       <c r="AF19" s="25"/>
       <c r="AG19" s="25"/>
@@ -2341,11 +2341,11 @@
       </c>
       <c r="N21" s="3" t="n">
         <f aca="false">IF(SUM(N17:N19)&gt;=2,SUM(N17:N19)-2,SUM(N17:N19))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="3" t="n">
         <f aca="false">IF(SUM(O17:O19)&gt;=2,SUM(O17:O19)-2,SUM(O17:O19))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="R21" s="3" t="n">
         <f aca="false">IF(SUM(R17:R19)&gt;=2,SUM(R17:R19)-2,SUM(R17:R19))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" s="3" t="n">
         <f aca="false">IF(SUM(S17:S19)&gt;=2,SUM(S17:S19)-2,SUM(S17:S19))</f>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="T21" s="3" t="n">
         <f aca="false">IF(SUM(T17:T19)&gt;=2,SUM(T17:T19)-2,SUM(T17:T19))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>4</v>
@@ -2375,11 +2375,11 @@
       </c>
       <c r="W21" s="3" t="n">
         <f aca="false">IF(SUM(W17:W19)&gt;=2,SUM(W17:W19)-2,SUM(W17:W19))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" s="3" t="n">
         <f aca="false">IF(SUM(X17:X19)&gt;=2,SUM(X17:X19)-2,SUM(X17:X19))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21" s="3" t="n">
         <f aca="false">IF(SUM(Y17:Y19)&gt;=2,SUM(Y17:Y19)-2,SUM(Y17:Y19))</f>
@@ -2390,11 +2390,11 @@
       </c>
       <c r="AA21" s="1" t="n">
         <f aca="false">Y21*2^0+X21*2^1+W21*2^2+V21*2^3+T21*2^4+S21*2^5+R21*2^6+Q21*2^7+O21*2^8+N21*2^9+M21*2^10+L21*2^11+J21*2^12+I21*2^13+H21*2^14+G21*2^15</f>
-        <v>23765</v>
+        <v>24451</v>
       </c>
       <c r="AE21" s="3" t="n">
         <f aca="false">AE18+AE19</f>
-        <v>23765</v>
+        <v>24451</v>
       </c>
       <c r="AF21" s="25"/>
       <c r="AG21" s="25"/>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="H25" s="22" t="n">
         <f aca="false">IF(SUM(I25:I27)&gt;=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="22" t="n">
         <f aca="false">IF(SUM(J25:J27)&gt;=2,1,0)</f>
@@ -2512,7 +2512,7 @@
       <c r="P25" s="22"/>
       <c r="Q25" s="22" t="n">
         <f aca="false">IF(SUM(R25:R27)&gt;=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" s="22" t="n">
         <f aca="false">IF(SUM(S25:S27)&gt;=2,1,0)</f>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="W25" s="22" t="n">
         <f aca="false">IF(SUM(X25:X27)&gt;=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25" s="22" t="n">
         <f aca="false">IF(SUM(Y25:Y27)&gt;=2,1,0)</f>
@@ -2563,15 +2563,15 @@
       </c>
       <c r="H26" s="3" t="n">
         <f aca="false">H5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3" t="n">
         <f aca="false">I5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="3" t="n">
         <f aca="false">J5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="3" t="str">
         <f aca="false">K5</f>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="O26" s="3" t="n">
         <f aca="false">O5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3" t="str">
         <f aca="false">P5</f>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="S26" s="3" t="n">
         <f aca="false">S5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3" t="n">
         <f aca="false">T5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26" s="3" t="str">
         <f aca="false">U5</f>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AE26" s="3" t="n">
         <f aca="false">C5</f>
-        <v>20458</v>
+        <v>16090</v>
       </c>
       <c r="AF26" s="25" t="s">
         <v>58</v>
@@ -2683,11 +2683,11 @@
       </c>
       <c r="N27" s="3" t="n">
         <f aca="false">N6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" s="3" t="n">
         <f aca="false">O6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" s="3" t="str">
         <f aca="false">P6</f>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="R27" s="3" t="n">
         <f aca="false">R6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3" t="n">
         <f aca="false">S6</f>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="T27" s="3" t="n">
         <f aca="false">T6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27" s="3" t="str">
         <f aca="false">U6</f>
@@ -2719,11 +2719,11 @@
       </c>
       <c r="W27" s="3" t="n">
         <f aca="false">W6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27" s="3" t="n">
         <f aca="false">X6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27" s="3" t="n">
         <f aca="false">Y6</f>
@@ -2737,7 +2737,7 @@
       </c>
       <c r="AE27" s="3" t="n">
         <f aca="false">C6</f>
-        <v>23765</v>
+        <v>24451</v>
       </c>
       <c r="AF27" s="25"/>
       <c r="AG27" s="25"/>
@@ -2785,11 +2785,11 @@
       </c>
       <c r="I29" s="3" t="n">
         <f aca="false">IF(SUM(I25:I27)&gt;=2,SUM(I25:I27)-2,SUM(I25:I27))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="n">
         <f aca="false">IF(SUM(J25:J27)&gt;=2,SUM(J25:J27)-2,SUM(J25:J27))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>4</v>
@@ -2804,7 +2804,7 @@
       </c>
       <c r="N29" s="3" t="n">
         <f aca="false">IF(SUM(N25:N27)&gt;=2,SUM(N25:N27)-2,SUM(N25:N27))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" s="3" t="n">
         <f aca="false">IF(SUM(O25:O27)&gt;=2,SUM(O25:O27)-2,SUM(O25:O27))</f>
@@ -2815,15 +2815,15 @@
       </c>
       <c r="Q29" s="3" t="n">
         <f aca="false">IF(SUM(Q25:Q27)&gt;=2,SUM(Q25:Q27)-2,SUM(Q25:Q27))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="n">
         <f aca="false">IF(SUM(R25:R27)&gt;=2,SUM(R25:R27)-2,SUM(R25:R27))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" s="3" t="n">
         <f aca="false">IF(SUM(S25:S27)&gt;=2,SUM(S25:S27)-2,SUM(S25:S27))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="n">
         <f aca="false">IF(SUM(T25:T27)&gt;=2,SUM(T25:T27)-2,SUM(T25:T27))</f>
@@ -2842,7 +2842,7 @@
       </c>
       <c r="X29" s="3" t="n">
         <f aca="false">IF(SUM(X25:X27)&gt;=2,SUM(X25:X27)-2,SUM(X25:X27))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="3" t="n">
         <f aca="false">IF(SUM(Y25:Y27)&gt;=2,SUM(Y25:Y27)-2,SUM(Y25:Y27))</f>
@@ -2853,11 +2853,11 @@
       </c>
       <c r="AA29" s="1" t="n">
         <f aca="false">IF(G29=0,Y29*2^0+X29*2^1+W29*2^2+V29*2^3+T29*2^4+S29*2^5+R29*2^6+Q29*2^7+O29*2^8+N29*2^9+M29*2^10+L29*2^11+J29*2^12+I29*2^13+H29*2^14+G29*2^15,Y29*2^0+X29*2^1+W29*2^2+V29*2^3+T29*2^4+S29*2^5+R29*2^6+Q29*2^7+O29*2^8+N29*2^9+M29*2^10+L29*2^11+J29*2^12+I29*2^13+H29*2^14+G29*2^15-65536)</f>
-        <v>-21313</v>
+        <v>-24995</v>
       </c>
       <c r="AE29" s="3" t="n">
         <f aca="false">AE26+AE27</f>
-        <v>44223</v>
+        <v>40541</v>
       </c>
       <c r="AF29" s="25"/>
       <c r="AG29" s="25"/>
@@ -2970,12 +2970,12 @@
       </c>
       <c r="O33" s="23" t="n">
         <f aca="false">IF(SUM(Q33:Q35)&gt;=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" s="22"/>
       <c r="Q33" s="22" t="n">
         <f aca="false">IF(SUM(R33:R35)&gt;=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="22" t="n">
         <f aca="false">IF(SUM(S33:S35)&gt;=2,1,0)</f>
@@ -2983,20 +2983,20 @@
       </c>
       <c r="S33" s="22" t="n">
         <f aca="false">IF(SUM(T33:T35)&gt;=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" s="23" t="n">
         <f aca="false">IF(SUM(V33:V35)&gt;=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33" s="22"/>
       <c r="V33" s="22" t="n">
         <f aca="false">IF(SUM(W33:W35)&gt;=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" s="22" t="n">
         <f aca="false">IF(SUM(X33:X35)&gt;=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X33" s="22" t="n">
         <f aca="false">IF(SUM(Y33:Y35)&gt;=2,1,0)</f>
@@ -3026,15 +3026,15 @@
       </c>
       <c r="H34" s="3" t="n">
         <f aca="false">H5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="3" t="n">
         <f aca="false">I5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="3" t="n">
         <f aca="false">J5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="3" t="str">
         <f aca="false">K5</f>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="O34" s="3" t="n">
         <f aca="false">O5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" s="3" t="str">
         <f aca="false">P5</f>
@@ -3070,11 +3070,11 @@
       </c>
       <c r="S34" s="3" t="n">
         <f aca="false">S5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34" s="3" t="n">
         <f aca="false">T5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34" s="3" t="str">
         <f aca="false">U5</f>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="AE34" s="3" t="n">
         <f aca="false">C5</f>
-        <v>20458</v>
+        <v>16090</v>
       </c>
       <c r="AF34" s="25" t="s">
         <v>61</v>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="I35" s="3" t="n">
         <f aca="false">I10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3" t="n">
         <f aca="false">J10</f>
@@ -3138,11 +3138,11 @@
       </c>
       <c r="L35" s="3" t="n">
         <f aca="false">L10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" s="3" t="n">
         <f aca="false">M10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" s="3" t="n">
         <f aca="false">N10</f>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="R35" s="3" t="n">
         <f aca="false">R10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35" s="3" t="n">
         <f aca="false">S10</f>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="X35" s="3" t="n">
         <f aca="false">X10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y35" s="3" t="n">
         <f aca="false">Y10</f>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="AE35" s="3" t="n">
         <f aca="false">C10</f>
-        <v>-3307</v>
+        <v>-8361</v>
       </c>
       <c r="AF35" s="25"/>
       <c r="AG35" s="25"/>
@@ -3244,7 +3244,7 @@
       </c>
       <c r="H37" s="3" t="n">
         <f aca="false">IF(SUM(H33:H35)&gt;=2,SUM(H33:H35)-2,SUM(H33:H35))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" s="3" t="n">
         <f aca="false">IF(SUM(I33:I35)&gt;=2,SUM(I33:I35)-2,SUM(I33:I35))</f>
@@ -3252,18 +3252,18 @@
       </c>
       <c r="J37" s="3" t="n">
         <f aca="false">IF(SUM(J33:J35)&gt;=2,SUM(J33:J35)-2,SUM(J33:J35))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L37" s="3" t="n">
         <f aca="false">IF(SUM(L33:L35)&gt;=2,SUM(L33:L35)-2,SUM(L33:L35))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" s="3" t="n">
         <f aca="false">IF(SUM(M33:M35)&gt;=2,SUM(M33:M35)-2,SUM(M33:M35))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37" s="3" t="n">
         <f aca="false">IF(SUM(N33:N35)&gt;=2,SUM(N33:N35)-2,SUM(N33:N35))</f>
@@ -3278,11 +3278,11 @@
       </c>
       <c r="Q37" s="3" t="n">
         <f aca="false">IF(SUM(Q33:Q35)&gt;=2,SUM(Q33:Q35)-2,SUM(Q33:Q35))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R37" s="3" t="n">
         <f aca="false">IF(SUM(R33:R35)&gt;=2,SUM(R33:R35)-2,SUM(R33:R35))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S37" s="3" t="n">
         <f aca="false">IF(SUM(S33:S35)&gt;=2,SUM(S33:S35)-2,SUM(S33:S35))</f>
@@ -3297,15 +3297,15 @@
       </c>
       <c r="V37" s="3" t="n">
         <f aca="false">IF(SUM(V33:V35)&gt;=2,SUM(V33:V35)-2,SUM(V33:V35))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W37" s="3" t="n">
         <f aca="false">IF(SUM(W33:W35)&gt;=2,SUM(W33:W35)-2,SUM(W33:W35))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X37" s="3" t="n">
         <f aca="false">IF(SUM(X33:X35)&gt;=2,SUM(X33:X35)-2,SUM(X33:X35))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="3" t="n">
         <f aca="false">IF(SUM(Y33:Y35)&gt;=2,SUM(Y33:Y35)-2,SUM(Y33:Y35))</f>
@@ -3316,11 +3316,11 @@
       </c>
       <c r="AA37" s="1" t="n">
         <f aca="false">IF(G37=0,Y37*2^0+X37*2^1+W37*2^2+V37*2^3+T37*2^4+S37*2^5+R37*2^6+Q37*2^7+O37*2^8+N37*2^9+M37*2^10+L37*2^11+J37*2^12+I37*2^13+H37*2^14+G37*2^15,Y37*2^0+X37*2^1+W37*2^2+V37*2^3+T37*2^4+S37*2^5+R37*2^6+Q37*2^7+O37*2^8+N37*2^9+M37*2^10+L37*2^11+J37*2^12+I37*2^13+H37*2^14+G37*2^15-65536)</f>
-        <v>17151</v>
+        <v>7729</v>
       </c>
       <c r="AE37" s="3" t="n">
         <f aca="false">AE34+AE35</f>
-        <v>17151</v>
+        <v>7729</v>
       </c>
       <c r="AF37" s="25"/>
       <c r="AG37" s="25"/>
@@ -3354,7 +3354,7 @@
       <c r="N39" s="31"/>
       <c r="O39" s="32" t="n">
         <f aca="false">IF(MOD(SUM(Q37:T37)+SUM(V37:Y37),2)=0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39" s="19"/>
       <c r="Q39" s="31" t="s">
@@ -3364,7 +3364,7 @@
       <c r="S39" s="31"/>
       <c r="T39" s="32" t="n">
         <f aca="false">T33</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39" s="19"/>
       <c r="V39" s="31" t="s">
@@ -3408,7 +3408,7 @@
       </c>
       <c r="H41" s="22" t="n">
         <f aca="false">IF(SUM(I41:I43)&gt;=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" s="22" t="n">
         <f aca="false">IF(SUM(J41:J43)&gt;=2,1,0)</f>
@@ -3416,20 +3416,20 @@
       </c>
       <c r="J41" s="23" t="n">
         <f aca="false">IF(SUM(L41:L43)&gt;=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="22"/>
       <c r="L41" s="22" t="n">
         <f aca="false">IF(SUM(M41:M43)&gt;=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" s="22" t="n">
         <f aca="false">IF(SUM(N41:N43)&gt;=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" s="22" t="n">
         <f aca="false">IF(SUM(O41:O43)&gt;=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" s="23" t="n">
         <f aca="false">IF(SUM(Q41:Q43)&gt;=2,1,0)</f>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="S41" s="22" t="n">
         <f aca="false">IF(SUM(T41:T43)&gt;=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T41" s="23" t="n">
         <f aca="false">IF(SUM(V41:V43)&gt;=2,1,0)</f>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="W41" s="22" t="n">
         <f aca="false">IF(SUM(X41:X43)&gt;=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X41" s="22" t="n">
         <f aca="false">IF(SUM(Y41:Y43)&gt;=2,1,0)</f>
@@ -3493,7 +3493,7 @@
       </c>
       <c r="I42" s="3" t="n">
         <f aca="false">I10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3" t="n">
         <f aca="false">J10</f>
@@ -3505,11 +3505,11 @@
       </c>
       <c r="L42" s="3" t="n">
         <f aca="false">L10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" s="3" t="n">
         <f aca="false">M10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" s="3" t="n">
         <f aca="false">N10</f>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="R42" s="3" t="n">
         <f aca="false">R10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42" s="3" t="n">
         <f aca="false">S10</f>
@@ -3553,7 +3553,7 @@
       </c>
       <c r="X42" s="3" t="n">
         <f aca="false">X10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y42" s="3" t="n">
         <f aca="false">Y10</f>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="AE42" s="3" t="n">
         <f aca="false">C10</f>
-        <v>-3307</v>
+        <v>-8361</v>
       </c>
       <c r="AF42" s="25" t="s">
         <v>65</v>
@@ -3585,15 +3585,15 @@
       </c>
       <c r="H43" s="3" t="n">
         <f aca="false">H11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" s="3" t="n">
         <f aca="false">I11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3" t="n">
         <f aca="false">J11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="str">
         <f aca="false">K11</f>
@@ -3613,7 +3613,7 @@
       </c>
       <c r="O43" s="3" t="n">
         <f aca="false">O11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" s="3" t="str">
         <f aca="false">P11</f>
@@ -3629,11 +3629,11 @@
       </c>
       <c r="S43" s="3" t="n">
         <f aca="false">S11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43" s="3" t="n">
         <f aca="false">T11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U43" s="3" t="str">
         <f aca="false">U11</f>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="AE43" s="3" t="n">
         <f aca="false">C11</f>
-        <v>-20458</v>
+        <v>-16090</v>
       </c>
       <c r="AF43" s="25"/>
       <c r="AG43" s="25"/>
@@ -3730,11 +3730,11 @@
       </c>
       <c r="N45" s="3" t="n">
         <f aca="false">IF(SUM(N41:N43)&gt;=2,SUM(N41:N43)-2,SUM(N41:N43))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="n">
         <f aca="false">IF(SUM(O41:O43)&gt;=2,SUM(O41:O43)-2,SUM(O41:O43))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
@@ -3745,7 +3745,7 @@
       </c>
       <c r="R45" s="3" t="n">
         <f aca="false">IF(SUM(R41:R43)&gt;=2,SUM(R41:R43)-2,SUM(R41:R43))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45" s="3" t="n">
         <f aca="false">IF(SUM(S41:S43)&gt;=2,SUM(S41:S43)-2,SUM(S41:S43))</f>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="T45" s="3" t="n">
         <f aca="false">IF(SUM(T41:T43)&gt;=2,SUM(T41:T43)-2,SUM(T41:T43))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>4</v>
@@ -3764,11 +3764,11 @@
       </c>
       <c r="W45" s="3" t="n">
         <f aca="false">IF(SUM(W41:W43)&gt;=2,SUM(W41:W43)-2,SUM(W41:W43))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X45" s="3" t="n">
         <f aca="false">IF(SUM(X41:X43)&gt;=2,SUM(X41:X43)-2,SUM(X41:X43))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="3" t="n">
         <f aca="false">IF(SUM(Y41:Y43)&gt;=2,SUM(Y41:Y43)-2,SUM(Y41:Y43))</f>
@@ -3779,11 +3779,11 @@
       </c>
       <c r="AA45" s="1" t="n">
         <f aca="false">IF(G45=0,Y45*2^0+X45*2^1+W45*2^2+V45*2^3+T45*2^4+S45*2^5+R45*2^6+Q45*2^7+O45*2^8+N45*2^9+M45*2^10+L45*2^11+J45*2^12+I45*2^13+H45*2^14+G45*2^15,Y45*2^0+X45*2^1+W45*2^2+V45*2^3+T45*2^4+S45*2^5+R45*2^6+Q45*2^7+O45*2^8+N45*2^9+M45*2^10+L45*2^11+J45*2^12+I45*2^13+H45*2^14+G45*2^15-65536)</f>
-        <v>-23765</v>
+        <v>-24451</v>
       </c>
       <c r="AE45" s="3" t="n">
         <f aca="false">AE42+AE43</f>
-        <v>-23765</v>
+        <v>-24451</v>
       </c>
       <c r="AF45" s="25"/>
       <c r="AG45" s="25"/>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="H49" s="22" t="n">
         <f aca="false">IF(SUM(I49:I51)&gt;=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" s="22" t="n">
         <f aca="false">IF(SUM(J49:J51)&gt;=2,1,0)</f>
@@ -3901,7 +3901,7 @@
       <c r="P49" s="22"/>
       <c r="Q49" s="22" t="n">
         <f aca="false">IF(SUM(R49:R51)&gt;=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" s="22" t="n">
         <f aca="false">IF(SUM(S49:S51)&gt;=2,1,0)</f>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="W49" s="22" t="n">
         <f aca="false">IF(SUM(X49:X51)&gt;=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X49" s="22" t="n">
         <f aca="false">IF(SUM(Y49:Y51)&gt;=2,1,0)</f>
@@ -3952,15 +3952,15 @@
       </c>
       <c r="H50" s="3" t="n">
         <f aca="false">H11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" s="3" t="n">
         <f aca="false">I11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" s="3" t="n">
         <f aca="false">J11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="3" t="str">
         <f aca="false">K11</f>
@@ -3980,7 +3980,7 @@
       </c>
       <c r="O50" s="3" t="n">
         <f aca="false">O11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" s="3" t="str">
         <f aca="false">P11</f>
@@ -3996,11 +3996,11 @@
       </c>
       <c r="S50" s="3" t="n">
         <f aca="false">S11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T50" s="3" t="n">
         <f aca="false">T11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U50" s="3" t="str">
         <f aca="false">U11</f>
@@ -4027,7 +4027,7 @@
       </c>
       <c r="AE50" s="3" t="n">
         <f aca="false">C11</f>
-        <v>-20458</v>
+        <v>-16090</v>
       </c>
       <c r="AF50" s="25" t="s">
         <v>68</v>
@@ -4072,11 +4072,11 @@
       </c>
       <c r="N51" s="3" t="n">
         <f aca="false">N12</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51" s="3" t="n">
         <f aca="false">O12</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P51" s="3" t="str">
         <f aca="false">P12</f>
@@ -4088,7 +4088,7 @@
       </c>
       <c r="R51" s="3" t="n">
         <f aca="false">R12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S51" s="3" t="n">
         <f aca="false">S12</f>
@@ -4096,7 +4096,7 @@
       </c>
       <c r="T51" s="3" t="n">
         <f aca="false">T12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U51" s="3" t="str">
         <f aca="false">U12</f>
@@ -4108,11 +4108,11 @@
       </c>
       <c r="W51" s="3" t="n">
         <f aca="false">W12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X51" s="3" t="n">
         <f aca="false">X12</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y51" s="3" t="n">
         <f aca="false">Y12</f>
@@ -4126,7 +4126,7 @@
       </c>
       <c r="AE51" s="3" t="n">
         <f aca="false">C12</f>
-        <v>-23765</v>
+        <v>-24451</v>
       </c>
       <c r="AF51" s="25"/>
       <c r="AG51" s="25"/>
@@ -4174,11 +4174,11 @@
       </c>
       <c r="I53" s="3" t="n">
         <f aca="false">IF(SUM(I49:I51)&gt;=2,SUM(I49:I51)-2,SUM(I49:I51))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" s="3" t="n">
         <f aca="false">IF(SUM(J49:J51)&gt;=2,SUM(J49:J51)-2,SUM(J49:J51))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>4</v>
@@ -4193,7 +4193,7 @@
       </c>
       <c r="N53" s="3" t="n">
         <f aca="false">IF(SUM(N49:N51)&gt;=2,SUM(N49:N51)-2,SUM(N49:N51))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53" s="3" t="n">
         <f aca="false">IF(SUM(O49:O51)&gt;=2,SUM(O49:O51)-2,SUM(O49:O51))</f>
@@ -4204,15 +4204,15 @@
       </c>
       <c r="Q53" s="3" t="n">
         <f aca="false">IF(SUM(Q49:Q51)&gt;=2,SUM(Q49:Q51)-2,SUM(Q49:Q51))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" s="3" t="n">
         <f aca="false">IF(SUM(R49:R51)&gt;=2,SUM(R49:R51)-2,SUM(R49:R51))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S53" s="3" t="n">
         <f aca="false">IF(SUM(S49:S51)&gt;=2,SUM(S49:S51)-2,SUM(S49:S51))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T53" s="3" t="n">
         <f aca="false">IF(SUM(T49:T51)&gt;=2,SUM(T49:T51)-2,SUM(T49:T51))</f>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="X53" s="3" t="n">
         <f aca="false">IF(SUM(X49:X51)&gt;=2,SUM(X49:X51)-2,SUM(X49:X51))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y53" s="3" t="n">
         <f aca="false">IF(SUM(Y49:Y51)&gt;=2,SUM(Y49:Y51)-2,SUM(Y49:Y51))</f>
@@ -4242,11 +4242,11 @@
       </c>
       <c r="AA53" s="1" t="n">
         <f aca="false">IF(G53=0,Y53*2^0+X53*2^1+W53*2^2+V53*2^3+T53*2^4+S53*2^5+R53*2^6+Q53*2^7+O53*2^8+N53*2^9+M53*2^10+L53*2^11+J53*2^12+I53*2^13+H53*2^14+G53*2^15,Y53*2^0+X53*2^1+W53*2^2+V53*2^3+T53*2^4+S53*2^5+R53*2^6+Q53*2^7+O53*2^8+N53*2^9+M53*2^10+L53*2^11+J53*2^12+I53*2^13+H53*2^14+G53*2^15-65536)</f>
-        <v>21313</v>
+        <v>24995</v>
       </c>
       <c r="AE53" s="3" t="n">
         <f aca="false">AE50+AE51</f>
-        <v>-44223</v>
+        <v>-40541</v>
       </c>
       <c r="AF53" s="25"/>
       <c r="AG53" s="25"/>
@@ -4359,12 +4359,12 @@
       </c>
       <c r="O57" s="23" t="n">
         <f aca="false">IF(SUM(Q57:Q59)&gt;=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P57" s="22"/>
       <c r="Q57" s="22" t="n">
         <f aca="false">IF(SUM(R57:R59)&gt;=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R57" s="22" t="n">
         <f aca="false">IF(SUM(S57:S59)&gt;=2,1,0)</f>
@@ -4372,20 +4372,20 @@
       </c>
       <c r="S57" s="22" t="n">
         <f aca="false">IF(SUM(T57:T59)&gt;=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T57" s="23" t="n">
         <f aca="false">IF(SUM(V57:V59)&gt;=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U57" s="22"/>
       <c r="V57" s="22" t="n">
         <f aca="false">IF(SUM(W57:W59)&gt;=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W57" s="22" t="n">
         <f aca="false">IF(SUM(X57:X59)&gt;=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X57" s="22" t="n">
         <f aca="false">IF(SUM(Y57:Y59)&gt;=2,1,0)</f>
@@ -4419,7 +4419,7 @@
       </c>
       <c r="I58" s="3" t="n">
         <f aca="false">I4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" s="3" t="n">
         <f aca="false">J4</f>
@@ -4431,11 +4431,11 @@
       </c>
       <c r="L58" s="3" t="n">
         <f aca="false">L4</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="n">
         <f aca="false">M4</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="n">
         <f aca="false">N4</f>
@@ -4455,7 +4455,7 @@
       </c>
       <c r="R58" s="3" t="n">
         <f aca="false">R4</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3" t="n">
         <f aca="false">S4</f>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="X58" s="3" t="n">
         <f aca="false">X4</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="3" t="n">
         <f aca="false">Y4</f>
@@ -4490,7 +4490,7 @@
       </c>
       <c r="AE58" s="3" t="n">
         <f aca="false">C4</f>
-        <v>3307</v>
+        <v>8361</v>
       </c>
       <c r="AF58" s="25" t="s">
         <v>71</v>
@@ -4511,15 +4511,15 @@
       </c>
       <c r="H59" s="3" t="n">
         <f aca="false">H11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" s="3" t="n">
         <f aca="false">I11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="n">
         <f aca="false">J11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3" t="str">
         <f aca="false">K11</f>
@@ -4539,7 +4539,7 @@
       </c>
       <c r="O59" s="3" t="n">
         <f aca="false">O11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59" s="3" t="str">
         <f aca="false">P11</f>
@@ -4555,11 +4555,11 @@
       </c>
       <c r="S59" s="3" t="n">
         <f aca="false">S11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T59" s="3" t="n">
         <f aca="false">T11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U59" s="3" t="str">
         <f aca="false">U11</f>
@@ -4589,7 +4589,7 @@
       </c>
       <c r="AE59" s="3" t="n">
         <f aca="false">C11</f>
-        <v>-20458</v>
+        <v>-16090</v>
       </c>
       <c r="AF59" s="25"/>
       <c r="AG59" s="25"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="H61" s="3" t="n">
         <f aca="false">IF(SUM(H57:H59)&gt;=2,SUM(H57:H59)-2,SUM(H57:H59))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" s="3" t="n">
         <f aca="false">IF(SUM(I57:I59)&gt;=2,SUM(I57:I59)-2,SUM(I57:I59))</f>
@@ -4641,18 +4641,18 @@
       </c>
       <c r="J61" s="3" t="n">
         <f aca="false">IF(SUM(J57:J59)&gt;=2,SUM(J57:J59)-2,SUM(J57:J59))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L61" s="3" t="n">
         <f aca="false">IF(SUM(L57:L59)&gt;=2,SUM(L57:L59)-2,SUM(L57:L59))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3" t="n">
         <f aca="false">IF(SUM(M57:M59)&gt;=2,SUM(M57:M59)-2,SUM(M57:M59))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3" t="n">
         <f aca="false">IF(SUM(N57:N59)&gt;=2,SUM(N57:N59)-2,SUM(N57:N59))</f>
@@ -4667,11 +4667,11 @@
       </c>
       <c r="Q61" s="3" t="n">
         <f aca="false">IF(SUM(Q57:Q59)&gt;=2,SUM(Q57:Q59)-2,SUM(Q57:Q59))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61" s="3" t="n">
         <f aca="false">IF(SUM(R57:R59)&gt;=2,SUM(R57:R59)-2,SUM(R57:R59))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S61" s="3" t="n">
         <f aca="false">IF(SUM(S57:S59)&gt;=2,SUM(S57:S59)-2,SUM(S57:S59))</f>
@@ -4686,15 +4686,15 @@
       </c>
       <c r="V61" s="3" t="n">
         <f aca="false">IF(SUM(V57:V59)&gt;=2,SUM(V57:V59)-2,SUM(V57:V59))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W61" s="3" t="n">
         <f aca="false">IF(SUM(W57:W59)&gt;=2,SUM(W57:W59)-2,SUM(W57:W59))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X61" s="3" t="n">
         <f aca="false">IF(SUM(X57:X59)&gt;=2,SUM(X57:X59)-2,SUM(X57:X59))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y61" s="3" t="n">
         <f aca="false">IF(SUM(Y57:Y59)&gt;=2,SUM(Y57:Y59)-2,SUM(Y57:Y59))</f>
@@ -4705,11 +4705,11 @@
       </c>
       <c r="AA61" s="1" t="n">
         <f aca="false">IF(G61=0,Y61*2^0+X61*2^1+W61*2^2+V61*2^3+T61*2^4+S61*2^5+R61*2^6+Q61*2^7+O61*2^8+N61*2^9+M61*2^10+L61*2^11+J61*2^12+I61*2^13+H61*2^14+G61*2^15,Y61*2^0+X61*2^1+W61*2^2+V61*2^3+T61*2^4+S61*2^5+R61*2^6+Q61*2^7+O61*2^8+N61*2^9+M61*2^10+L61*2^11+J61*2^12+I61*2^13+H61*2^14+G61*2^15-65536)</f>
-        <v>-17151</v>
+        <v>-7729</v>
       </c>
       <c r="AE61" s="3" t="n">
         <f aca="false">AE58+AE59</f>
-        <v>-17151</v>
+        <v>-7729</v>
       </c>
       <c r="AF61" s="25"/>
       <c r="AG61" s="25"/>
@@ -4743,7 +4743,7 @@
       <c r="N63" s="31"/>
       <c r="O63" s="32" t="n">
         <f aca="false">IF(MOD(SUM(Q61:T61)+SUM(V61:Y61),2)=0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63" s="19"/>
       <c r="Q63" s="31" t="s">
@@ -4753,7 +4753,7 @@
       <c r="S63" s="31"/>
       <c r="T63" s="32" t="n">
         <f aca="false">T57</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U63" s="19"/>
       <c r="V63" s="31" t="s">
@@ -4814,15 +4814,15 @@
       </c>
       <c r="M65" s="22" t="n">
         <f aca="false">IF(SUM(N65:N67)&gt;=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65" s="22" t="n">
         <f aca="false">IF(SUM(O65:O67)&gt;=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O65" s="23" t="n">
         <f aca="false">IF(SUM(Q65:Q67)&gt;=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P65" s="22"/>
       <c r="Q65" s="22" t="n">
@@ -4839,16 +4839,16 @@
       </c>
       <c r="T65" s="23" t="n">
         <f aca="false">IF(SUM(V65:V67)&gt;=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U65" s="22"/>
       <c r="V65" s="22" t="n">
         <f aca="false">IF(SUM(W65:W67)&gt;=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W65" s="22" t="n">
         <f aca="false">IF(SUM(X65:X67)&gt;=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X65" s="22" t="n">
         <f aca="false">IF(SUM(Y65:Y67)&gt;=2,1,0)</f>
@@ -4878,7 +4878,7 @@
       </c>
       <c r="H66" s="3" t="n">
         <f aca="false">H14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" s="3" t="n">
         <f aca="false">I14</f>
@@ -4886,7 +4886,7 @@
       </c>
       <c r="J66" s="3" t="n">
         <f aca="false">J14</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" s="3" t="str">
         <f aca="false">K14</f>
@@ -4894,11 +4894,11 @@
       </c>
       <c r="L66" s="3" t="n">
         <f aca="false">L14</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66" s="3" t="n">
         <f aca="false">M14</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66" s="3" t="n">
         <f aca="false">N14</f>
@@ -4914,11 +4914,11 @@
       </c>
       <c r="Q66" s="3" t="n">
         <f aca="false">Q14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R66" s="3" t="n">
         <f aca="false">R14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S66" s="3" t="n">
         <f aca="false">S14</f>
@@ -4934,15 +4934,15 @@
       </c>
       <c r="V66" s="3" t="n">
         <f aca="false">V14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W66" s="3" t="n">
         <f aca="false">W14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X66" s="3" t="n">
         <f aca="false">X14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y66" s="3" t="n">
         <f aca="false">Y14</f>
@@ -4953,7 +4953,7 @@
       </c>
       <c r="AE66" s="3" t="n">
         <f aca="false">C14</f>
-        <v>-17151</v>
+        <v>-7729</v>
       </c>
       <c r="AF66" s="25" t="s">
         <v>74</v>
@@ -4998,11 +4998,11 @@
       </c>
       <c r="N67" s="3" t="n">
         <f aca="false">N6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O67" s="3" t="n">
         <f aca="false">O6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P67" s="3" t="str">
         <f aca="false">P6</f>
@@ -5014,7 +5014,7 @@
       </c>
       <c r="R67" s="3" t="n">
         <f aca="false">R6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S67" s="3" t="n">
         <f aca="false">S6</f>
@@ -5022,7 +5022,7 @@
       </c>
       <c r="T67" s="3" t="n">
         <f aca="false">T6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U67" s="3" t="str">
         <f aca="false">U6</f>
@@ -5034,11 +5034,11 @@
       </c>
       <c r="W67" s="3" t="n">
         <f aca="false">W6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X67" s="3" t="n">
         <f aca="false">X6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y67" s="3" t="n">
         <f aca="false">Y6</f>
@@ -5052,7 +5052,7 @@
       </c>
       <c r="AE67" s="3" t="n">
         <f aca="false">C6</f>
-        <v>23765</v>
+        <v>24451</v>
       </c>
       <c r="AF67" s="25"/>
       <c r="AG67" s="25"/>
@@ -5096,7 +5096,7 @@
       </c>
       <c r="H69" s="3" t="n">
         <f aca="false">IF(SUM(H65:H67)&gt;=2,SUM(H65:H67)-2,SUM(H65:H67))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" s="3" t="n">
         <f aca="false">IF(SUM(I65:I67)&gt;=2,SUM(I65:I67)-2,SUM(I65:I67))</f>
@@ -5104,14 +5104,14 @@
       </c>
       <c r="J69" s="3" t="n">
         <f aca="false">IF(SUM(J65:J67)&gt;=2,SUM(J65:J67)-2,SUM(J65:J67))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L69" s="3" t="n">
         <f aca="false">IF(SUM(L65:L67)&gt;=2,SUM(L65:L67)-2,SUM(L65:L67))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M69" s="3" t="n">
         <f aca="false">IF(SUM(M65:M67)&gt;=2,SUM(M65:M67)-2,SUM(M65:M67))</f>
@@ -5130,7 +5130,7 @@
       </c>
       <c r="Q69" s="3" t="n">
         <f aca="false">IF(SUM(Q65:Q67)&gt;=2,SUM(Q65:Q67)-2,SUM(Q65:Q67))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R69" s="3" t="n">
         <f aca="false">IF(SUM(R65:R67)&gt;=2,SUM(R65:R67)-2,SUM(R65:R67))</f>
@@ -5153,7 +5153,7 @@
       </c>
       <c r="W69" s="3" t="n">
         <f aca="false">IF(SUM(W65:W67)&gt;=2,SUM(W65:W67)-2,SUM(W65:W67))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X69" s="3" t="n">
         <f aca="false">IF(SUM(X65:X67)&gt;=2,SUM(X65:X67)-2,SUM(X65:X67))</f>
@@ -5168,11 +5168,11 @@
       </c>
       <c r="AA69" s="1" t="n">
         <f aca="false">IF(G69=0,Y69*2^0+X69*2^1+W69*2^2+V69*2^3+T69*2^4+S69*2^5+R69*2^6+Q69*2^7+O69*2^8+N69*2^9+M69*2^10+L69*2^11+J69*2^12+I69*2^13+H69*2^14+G69*2^15,Y69*2^0+X69*2^1+W69*2^2+V69*2^3+T69*2^4+S69*2^5+R69*2^6+Q69*2^7+O69*2^8+N69*2^9+M69*2^10+L69*2^11+J69*2^12+I69*2^13+H69*2^14+G69*2^15-65536)</f>
-        <v>6614</v>
+        <v>16722</v>
       </c>
       <c r="AE69" s="3" t="n">
         <f aca="false">AE66+AE67</f>
-        <v>6614</v>
+        <v>16722</v>
       </c>
       <c r="AF69" s="25"/>
       <c r="AG69" s="25"/>
@@ -5216,7 +5216,7 @@
       <c r="S71" s="31"/>
       <c r="T71" s="32" t="n">
         <f aca="false">T65</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U71" s="19"/>
       <c r="V71" s="31" t="s">
